--- a/Anhang/Glossar.xlsx
+++ b/Anhang/Glossar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coopgruppe-my.sharepoint.com/personal/elias_mattern_coop_ch/Documents/IPA/IPA/Anhang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="11_AD4DB114E441178AC67DF4913691E8FE683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343864B9-8CCB-4567-A76C-0819FB64532D}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="11_AD4DB114E441178AC67DF4913691E8FE683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CCE3726-B5F4-403E-9391-8A6D1274654F}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="150" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Begriff</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Datenbank View</t>
+  </si>
+  <si>
+    <t>YAML</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +749,9 @@
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
